--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174320.3286123406</v>
+        <v>174320.4053720728</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6058391.215842249</v>
+        <v>6060859.158607267</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22564531.09171689</v>
+        <v>22564047.62847938</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3925885.216388697</v>
+        <v>3925961.634885956</v>
       </c>
     </row>
     <row r="11">
@@ -11297,25 +11299,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>213.5995192441138</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>228.646447129796</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>223.2236304029182</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>222.2917199246831</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>223.0369795084357</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>224.3351602892557</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>215.9092192069638</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>123.2740250551552</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>133.7242829031451</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>134.1881164937918</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>137.5276204128246</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>126.977235184952</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>138.0424948128376</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>129.8314131257895</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>135.9517063533982</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11458,19 +11460,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>130.9945330015096</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>134.9064531715621</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>123.9602067627609</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>134.502629329381</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>133.863388828537</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -25877,16 +25879,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>414.8469976648709</v>
       </c>
       <c r="H44" t="n">
-        <v>338.1439033881534</v>
+        <v>338.0643520315285</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>204.9248421118658</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>141.3628824684264</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>205.6879443719866</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>222.9311139191226</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4771421574276</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>136.0190540982959</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>110.4223762806608</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>86.36044943933398</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>94.43693657204597</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>168.8844160456835</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>198.3657798815145</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6569036391258</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,19 +26037,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>167.8861045898245</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6340720089168</v>
+        <v>161.6030930562142</v>
       </c>
       <c r="I46" t="n">
-        <v>153.7585467974036</v>
+        <v>153.6537631823318</v>
       </c>
       <c r="J46" t="n">
-        <v>88.83884492777894</v>
+        <v>88.59250206973378</v>
       </c>
       <c r="K46" t="n">
-        <v>14.77440971783335</v>
+        <v>14.36959272852937</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.76069987584818</v>
+        <v>79.46893389083417</v>
       </c>
       <c r="R46" t="n">
-        <v>173.3911476697823</v>
+        <v>173.2344790603067</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>222.2966844130269</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3324659915077</v>
+        <v>228.3175783557508</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0520803361397</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>339517.7272039766</v>
+        <v>339650.0593158397</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>63659.57385074558</v>
       </c>
       <c r="D2" t="n">
-        <v>63659.57385074559</v>
+        <v>63659.57385074558</v>
       </c>
       <c r="E2" t="n">
         <v>63659.57385074558</v>
@@ -26329,16 +26331,16 @@
         <v>63659.57385074558</v>
       </c>
       <c r="H2" t="n">
-        <v>63659.57385074559</v>
+        <v>63659.57385074558</v>
       </c>
       <c r="I2" t="n">
         <v>63659.57385074558</v>
       </c>
       <c r="J2" t="n">
-        <v>63659.57385074559</v>
+        <v>63659.57385074558</v>
       </c>
       <c r="K2" t="n">
-        <v>63659.57385074559</v>
+        <v>63659.57385074558</v>
       </c>
       <c r="L2" t="n">
         <v>63659.57385074558</v>
@@ -26350,10 +26352,10 @@
         <v>63659.57385074558</v>
       </c>
       <c r="O2" t="n">
-        <v>63659.57385074558</v>
+        <v>63659.57385074559</v>
       </c>
       <c r="P2" t="n">
-        <v>63659.57385074558</v>
+        <v>63717.58943924854</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1286.042630739618</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>31829.78692537279</v>
       </c>
       <c r="P4" t="n">
-        <v>31829.78692537279</v>
+        <v>31681.71035947162</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>42.12250644573074</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1797.813074627215</v>
+        <v>-1797.813074627207</v>
       </c>
       <c r="C6" t="n">
-        <v>-1797.813074627218</v>
+        <v>-1797.813074627207</v>
       </c>
       <c r="D6" t="n">
-        <v>-1797.8130746272</v>
+        <v>-1797.813074627207</v>
       </c>
       <c r="E6" t="n">
         <v>31829.78692537279</v>
@@ -26537,13 +26539,13 @@
         <v>31829.78692537279</v>
       </c>
       <c r="H6" t="n">
-        <v>31829.7869253728</v>
+        <v>31829.78692537279</v>
       </c>
       <c r="I6" t="n">
         <v>31829.78692537279</v>
       </c>
       <c r="J6" t="n">
-        <v>31829.7869253728</v>
+        <v>31829.78692537279</v>
       </c>
       <c r="K6" t="n">
         <v>31829.78692537279</v>
@@ -26552,16 +26554,16 @@
         <v>31829.78692537279</v>
       </c>
       <c r="M6" t="n">
-        <v>31829.78692537278</v>
+        <v>31829.78692537279</v>
       </c>
       <c r="N6" t="n">
-        <v>31829.78692537278</v>
+        <v>31829.78692537279</v>
       </c>
       <c r="O6" t="n">
-        <v>31829.78692537279</v>
+        <v>31829.7869253728</v>
       </c>
       <c r="P6" t="n">
-        <v>31829.78692537279</v>
+        <v>30707.71394259157</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.932225066317924</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.00776773896007205</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.07955135662483791</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.299465756258178</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.9880855247422659</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.225807465941571</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.363946993672752</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.386017081993057</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.308776627708841</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.117010572132062</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.8388284206244812</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.4879402324506263</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.177007351552642</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.03400327729771541</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.0006214191168057639</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.004156106746419685</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.04013924147200065</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.1430940261376953</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.3926609448448529</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.6711200968549719</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.9024037915855551</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.053062661143269</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.080934096297987</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>0.9888435204957399</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.7936341031825451</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.5305233804728007</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.2580431890452504</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.07719785996090946</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.01675202675420916</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0002734280754223479</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.003484340283524125</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.03097895270260542</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.1047836150717983</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.2463428580451556</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.4048169893039846</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.5180263726977595</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.5461861773527862</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.5331990908414693</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.4924956611657555</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.421415119381863</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.2917659850140065</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.1566686094755483</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.06072254839559768</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.0148876357568758</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0001900549245558616</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174320.4053720728</v>
+        <v>48460.07577448565</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6060859.158607267</v>
+        <v>6058391.215842249</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22564047.62847938</v>
+        <v>22564531.09171689</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3925961.634885956</v>
+        <v>3925885.216388697</v>
       </c>
     </row>
     <row r="11">
@@ -11299,25 +11299,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>213.5995192441138</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L44" t="n">
-        <v>228.646447129796</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M44" t="n">
-        <v>223.2236304029182</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N44" t="n">
-        <v>222.2917199246831</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>223.0369795084357</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P44" t="n">
-        <v>224.3351602892557</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.9092192069638</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.2740250551552</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>133.7242829031451</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>134.1881164937918</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M45" t="n">
-        <v>137.5276204128246</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>126.977235184952</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>138.0424948128376</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>129.8314131257895</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.9517063533982</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11460,19 +11460,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>130.9945330015096</v>
+        <v>131.5125593742073</v>
       </c>
       <c r="M46" t="n">
-        <v>134.9064531715621</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N46" t="n">
-        <v>123.9602067627609</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O46" t="n">
-        <v>134.502629329381</v>
+        <v>134.9951249905467</v>
       </c>
       <c r="P46" t="n">
-        <v>133.863388828537</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -25879,16 +25879,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8469976648709</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>338.0643520315285</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I44" t="n">
-        <v>204.9248421118658</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.3628824684264</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S44" t="n">
-        <v>205.6879443719866</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9311139191226</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4771421574276</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0190540982959</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4223762806608</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>86.36044943933398</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.43693657204597</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
-        <v>168.8844160456835</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3657798815145</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,19 +26037,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8861045898245</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6030930562142</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I46" t="n">
-        <v>153.6537631823318</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J46" t="n">
-        <v>88.59250206973378</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K46" t="n">
-        <v>14.36959272852937</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.46893389083417</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R46" t="n">
-        <v>173.2344790603067</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S46" t="n">
-        <v>222.2966844130269</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3175783557508</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>339650.0593158397</v>
+        <v>339517.7272039766</v>
       </c>
     </row>
   </sheetData>
@@ -26346,7 +26346,7 @@
         <v>63659.57385074558</v>
       </c>
       <c r="M2" t="n">
-        <v>63659.57385074558</v>
+        <v>63659.57385074559</v>
       </c>
       <c r="N2" t="n">
         <v>63659.57385074558</v>
@@ -26355,7 +26355,7 @@
         <v>63659.57385074559</v>
       </c>
       <c r="P2" t="n">
-        <v>63717.58943924854</v>
+        <v>63659.57385074558</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1286.042630739618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>31829.78692537279</v>
       </c>
       <c r="P4" t="n">
-        <v>31681.71035947162</v>
+        <v>31829.78692537279</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>42.12250644573074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1797.813074627207</v>
+        <v>-16840.83380243849</v>
       </c>
       <c r="C6" t="n">
-        <v>-1797.813074627207</v>
+        <v>-16840.83380243849</v>
       </c>
       <c r="D6" t="n">
-        <v>-1797.813074627207</v>
+        <v>-16840.83380243849</v>
       </c>
       <c r="E6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="F6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="G6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="H6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="I6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="J6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="K6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.7661975615</v>
       </c>
       <c r="L6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="M6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="N6" t="n">
-        <v>31829.78692537279</v>
+        <v>16786.76619756151</v>
       </c>
       <c r="O6" t="n">
-        <v>31829.7869253728</v>
+        <v>16786.76619756152</v>
       </c>
       <c r="P6" t="n">
-        <v>30707.71394259157</v>
+        <v>16786.76619756151</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.932225066317924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.932225066317924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00776773896007205</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07955135662483791</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.299465756258178</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9880855247422659</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.225807465941571</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.363946993672752</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.386017081993057</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.308776627708841</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.117010572132062</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8388284206244812</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4879402324506263</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.177007351552642</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03400327729771541</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.004156106746419685</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04013924147200065</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1430940261376953</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3926609448448529</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6711200968549719</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9024037915855551</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.053062661143269</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.080934096297987</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.9888435204957399</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7936341031825451</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5305233804728007</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2580431890452504</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.07719785996090946</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01675202675420916</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0002734280754223479</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.003484340283524125</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03097895270260542</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1047836150717983</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2463428580451556</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4048169893039846</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5180263726977595</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5461861773527862</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5331990908414693</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4924956611657555</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.421415119381863</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2917659850140065</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1566686094755483</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06072254839559768</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0148876357568758</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
